--- a/학습자료/단답형/영어_단어_Day13.xlsx
+++ b/학습자료/단답형/영어_단어_Day13.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>유의어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>명사</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>사람</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>동사</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>할 일이 없는, 뭘 해야 할지 모르는)</t>
+          <t>할 일이 없는, 뭘 해야 할지 모르는</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>형용사</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>전치사</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>관용어</t>
+          <t>부사</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_Day13.xlsx
+++ b/학습자료/단답형/영어_단어_Day13.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,49 +446,49 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>오답가산점</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>suspect</t>
+          <t>around the corner</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>의심하다</t>
+          <t>길모퉁이에 / 임박한</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>doubt</t>
+          <t>distrust</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,122 +498,122 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>apply oneself to (=give all one's energy to)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>의심하다</t>
+          <t>~에 전념하다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>distrust</t>
+          <t>volunteer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>의심하다</t>
+          <t>자발적인</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mistrust</t>
+          <t>(as) hard as nails</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>의심하다</t>
+          <t>냉혹한 / 무자비한 / 건장한</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>be suspicious of</t>
+          <t>ask somebody out</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>의심하다</t>
+          <t>~에게 데이트를 신청하다</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>uncivilized</t>
+          <t>barbarous</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -623,22 +623,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>barbaric</t>
+          <t>savage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -648,2091 +648,2091 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>barbarous</t>
+          <t>wander</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>야만적인</t>
+          <t>배회하다</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>savage</t>
+          <t>launch</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>야만적인</t>
+          <t>시작하다 / 착수하다</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>brutal</t>
+          <t>aggravate</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>야만적인</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cheerful</t>
+          <t>unforced</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>쾌활한</t>
+          <t>자발적인</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>merry</t>
+          <t>as bold as brass</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>쾌활한</t>
+          <t>뻔뻔스러운 / 철면피의</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jolly</t>
+          <t>initiate</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>쾌활한</t>
+          <t>시작하다 / 착수하다</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lightsome</t>
+          <t>be suspicious of</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>쾌활한</t>
+          <t>의심하다</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vivacious</t>
+          <t>commence</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>쾌활한</t>
+          <t>시작하다 / 착수하다</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>volunteer</t>
+          <t>as well (=besides / into the bargain)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>자발적인</t>
+          <t>게다가 / 또한</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>willing</t>
+          <t>as a result of</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>자발적인</t>
+          <t>~의 결과로</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>unforced</t>
+          <t>an old hand</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>자발적인</t>
+          <t>노련한 사람 / 숙련자</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>사람</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>spontaneous</t>
+          <t>as regards (=as to / concerning / regarding)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>자발적인</t>
+          <t>~에 관하여</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>curtail</t>
+          <t>hover</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>줄이다, 축소하다</t>
+          <t>배회하다</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>uncivilized</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>줄이다, 축소하다</t>
+          <t>야만적인</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>as likely as not (=probably)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>줄이다, 축소하다</t>
+          <t>아마</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>decline</t>
+          <t>as a whole</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>줄이다, 축소하다</t>
+          <t>전체로서</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>diminish</t>
+          <t>apt to (=be likely to / be liable to)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>줄이다, 축소하다</t>
+          <t>~하기 쉬운</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hover</t>
+          <t>suspect</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>배회하다</t>
+          <t>의심하다</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>roam</t>
+          <t>as sound as a dollar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>배회하다</t>
+          <t>매우 간단히</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wander</t>
+          <t>anything but (=never)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>배회하다</t>
+          <t>결코 ~이 아닌</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>initiate</t>
+          <t>curtail</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>시작하다, 착수하다</t>
+          <t>줄이다 / 축소하다</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>launch</t>
+          <t>template</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>시작하다, 착수하다</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>commence</t>
+          <t>as deep as a well</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>시작하다, 착수하다</t>
+          <t>우물만큼 깊은 / 이해하기 어려운</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>undertake</t>
+          <t>cheerful</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>시작하다, 착수하다</t>
+          <t>쾌활한</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aggravate</t>
+          <t>as crooked as a dog's hind leg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>부정직한</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>worsen</t>
+          <t>doubt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>의심하다</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>deteriorate</t>
+          <t>ask after (=inquire after)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>안부를 묻다</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>exacerbate</t>
+          <t>vivacious</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>쾌활한</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>deprave</t>
+          <t>at best (=in the most favorable case)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>악화시키다</t>
+          <t>아무리 잘해야</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hallucination</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>환각, 환상, 망상</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vision</t>
+          <t>willing</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>환각, 환상, 망상</t>
+          <t>자발적인</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>illusion</t>
+          <t>exacerbate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>환각, 환상, 망상</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>phantom</t>
+          <t>roam</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>환각, 환상, 망상</t>
+          <t>배회하다</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>delusion</t>
+          <t>answer for (=be responsible for)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>환각, 환상, 망상</t>
+          <t>~에 대해 책임지다</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>template</t>
+          <t>amount to</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>총계가 ~에 이르다; 결과적으로 ~에 해당하다</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>deprave</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>Alpha and Omega</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>시작과 끝 / 모든 것 / 근본</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
           <t>명사</t>
         </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>and so on(=and so forth / and what not)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>견본</t>
+          <t>~등등 / 따위</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alpha and Omega</t>
+          <t>as usual (=in the usual way)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>시작과 끝, 모든 것, 근본</t>
+          <t>평소와 다름없이</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>amount to</t>
+          <t>apart from (=independently of)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>총계가 ~에 이르다; 결과적으로 ~에 해당하다</t>
+          <t>~은 별도로 하고</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>act of God</t>
+          <t>as good as(=practically / no better than)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>천재지변, 불가항력</t>
+          <t>사실상 / ~과 같은</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>an apple of discord</t>
+          <t>spontaneous</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>분쟁의 화두</t>
+          <t>자발적인</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>an escape clause</t>
+          <t>as a matter of course</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>면책사항</t>
+          <t>당연히</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>an old hand</t>
+          <t>diminish</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>노련한 사람, 숙련자</t>
+          <t>줄이다 / 축소하다</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>사람</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>and so on(=and so forth, and what not)</t>
+          <t>act of God</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~등등, 따위</t>
+          <t>천재지변 / 불가항력</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>answer for (=be responsible for)</t>
+          <t>as a rule(=usually / on the whole)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~에 대해 책임지다</t>
+          <t>통상 / 대체로</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>anything but (=never)</t>
+          <t>deteriorate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>결코 ~이 아닌</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>apart from (=independently of)</t>
+          <t>delusion</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~은 별도로 하고</t>
+          <t>환각 / 환상 / 망상</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>apply for</t>
+          <t>mistrust</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~에 지원하다</t>
+          <t>의심하다</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>apply oneself to (=give all one's energy to)</t>
+          <t>around[round] the clock</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~에 전념하다</t>
+          <t>24시간 내내 / 밤낮으로</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>apt to (=be likely to, be liable to)</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~하기 쉬운</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>around the corner</t>
+          <t>at every turn</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>길모퉁이에, 임박한</t>
+          <t>언제나 / 어디에서나</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
           <t>부사</t>
         </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>around[round] the clock</t>
+          <t>at any rates (=in any case / at all events)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>24시간 내내, 밤낮으로</t>
+          <t>어쨌든</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
           <t>부사</t>
         </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>as a matter of course</t>
+          <t>as a matter of fact (=in fact)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>당연히</t>
+          <t>사실</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
           <t>부사</t>
         </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>as a matter of fact (=in fact)</t>
+          <t>jolly</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>사실</t>
+          <t>쾌활한</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>as a result of</t>
+          <t>decrease</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~의 결과로</t>
+          <t>줄이다 / 축소하다</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>as a rule(=usually, on the whole)</t>
+          <t>an apple of discord</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>통상, 대체로</t>
+          <t>분쟁의 화두</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>as a whole</t>
+          <t>hallucination</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>전체로서</t>
+          <t>환각 / 환상 / 망상</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>as bold as brass</t>
+          <t>merry</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>뻔뻔스러운, 철면피의</t>
+          <t>쾌활한</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
           <t>형용사</t>
         </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>as crooked as a dog's hind leg</t>
+          <t>apply for</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>부정직한</t>
+          <t>~에 지원하다</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>as deep as a well</t>
+          <t>vision</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>우물만큼 깊은, 이해하기 어려운</t>
+          <t>환각 / 환상 / 망상</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>(as) easy as pie</t>
+          <t>as for (=speaking of)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>누워서 떡 먹기인</t>
+          <t>~에 관하여 말하면</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>as for (=speaking of)</t>
+          <t>as yet (=up to now)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~에 관하여 말하면</t>
+          <t>이제껏 / 아직까지</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>as good as(=practically, no better than)</t>
+          <t>phantom</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>사실상, ~과 같은</t>
+          <t>환각 / 환상 / 망상</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>(as) hard as nails</t>
+          <t>at all events(=in any case / at any rate)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>냉혹한, 무자비한, 건장한</t>
+          <t>어떤 경우라도</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>as it were (=so to speak, so to say, as one might say)</t>
+          <t>question</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>말하자면</t>
+          <t>의심하다</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>as likely as not (=probably)</t>
+          <t>decline</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>아마</t>
+          <t>줄이다 / 축소하다</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>as regards (=as to, concerning, regarding)</t>
+          <t>at a loss (=perplexed / uncertain)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~에 관하여</t>
+          <t>어쩔 줄을 몰라서</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>as sound as a dollar</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>매우 간단히</t>
+          <t>견본</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>as usual (=in the usual way)</t>
+          <t>ask for</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>평소와 다름없이</t>
+          <t>~을 요청하다</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>as well (=besides, into the bargain)</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>게다가, 또한</t>
+          <t>줄이다 / 축소하다</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>as yet (=up to now)</t>
+          <t xml:space="preserve">at about (=near) </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>이제껏, 아직까지</t>
+          <t>~쯤에</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>전치사</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ask after (=inquire after)</t>
+          <t>brutal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>안부를 묻다</t>
+          <t>야만적인</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ask for</t>
+          <t>(as) easy as pie</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~을 요청하다</t>
+          <t>누워서 떡 먹기인</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ask somebody out</t>
+          <t>lightsome</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~에게 데이트를 신청하다</t>
+          <t>쾌활한</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>assume[put on] airs</t>
+          <t>an escape clause</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>뽐내다, 잘난 체하다</t>
+          <t>면책사항</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>동사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>at loose ends (=at a loose ends)</t>
+          <t>assume[put on] airs</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>할 일이 없는, 뭘 해야 할지 모르는</t>
+          <t>뽐내다 / 잘난 체하다</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>at a loss (=perplexed, uncertain)</t>
+          <t>illusion</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>어쩔 줄을 몰라서</t>
+          <t>환각 / 환상 / 망상</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">at about (=near) </t>
+          <t>worsen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~쯤에</t>
+          <t>악화시키다</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>at all events(=in any case, at any rate)</t>
+          <t>as it were (=so to speak / so to say / as one might say)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>어떤 경우라도</t>
+          <t>말하자면</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>전치사</t>
-        </is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>at any rates (=in any case, at all events)</t>
+          <t>at loose ends (=at a loose ends)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>어쨌든</t>
+          <t>할 일이 없는 / 뭘 해야 할지 모르는</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>at best (=in the most favorable case)</t>
+          <t>undertake</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>아무리 잘해야</t>
+          <t>시작하다 / 착수하다</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>at every turn</t>
+          <t>barbaric</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>언제나, 어디에서나</t>
+          <t>야만적인</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Day13</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>부사</t>
-        </is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Day13</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
